--- a/3. Excel HUB/Formatação/2.1 - formatacao basica.xlsx
+++ b/3. Excel HUB/Formatação/2.1 - formatacao basica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PlenilunoS\Dev Hub\GitHub\my-learning-code-hub\3. Excel HUB\Formatação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74A5A96-93D0-48FC-AF99-20E06A851A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150DA95A-0B43-4EF7-88CB-BA882D0DF4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12216" activeTab="1" xr2:uid="{11ADBD94-835E-42FD-87D7-2C1F2D0DCA3D}"/>
   </bookViews>
@@ -492,7 +492,7 @@
   <dimension ref="D3:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="D3" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
